--- a/input/mappings/SO2_control_frac_last_inv_year.xlsx
+++ b/input/mappings/SO2_control_frac_last_inv_year.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orou913\OneDrive - PNNL\Desktop\CEDS_Repos\working_branch_1\CEDS\input\mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_442E87315B1C0CB08FB4EBE4DD569F3831B6F368" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1A2962F2-F539-4791-9405-C9B408785970}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23820" windowHeight="9855"/>
+    <workbookView xWindow="1914" yWindow="432" windowWidth="18300" windowHeight="11742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="last_inv_year" sheetId="1" r:id="rId1"/>
@@ -13,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">complete_info!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">last_inv_year!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">last_inv_year!$A$1:$B$76</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="88">
   <si>
     <t>arg</t>
   </si>
@@ -289,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,6 +846,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -887,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,9 +929,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,6 +981,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1130,19 +1173,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1193,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1201,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1209,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1174,7 +1217,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1225,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1190,7 +1233,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1198,7 +1241,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1206,7 +1249,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1257,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1222,7 +1265,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1230,7 +1273,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1281,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1289,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1297,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1262,15 +1305,15 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1278,7 +1321,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1286,7 +1329,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1294,7 +1337,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1302,7 +1345,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1310,7 +1353,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1318,7 +1361,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1326,7 +1369,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1334,7 +1377,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1342,7 +1385,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1350,7 +1393,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1358,7 +1401,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1366,7 +1409,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1374,7 +1417,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1425,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +1433,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1398,7 +1441,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1406,7 +1449,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1414,7 +1457,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1465,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1430,7 +1473,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1481,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1489,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1497,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1505,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1470,7 +1513,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1521,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1486,7 +1529,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -1494,7 +1537,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1502,7 +1545,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -1510,7 +1553,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1518,7 +1561,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -1526,7 +1569,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1534,7 +1577,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1542,7 +1585,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -1550,7 +1593,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1558,7 +1601,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -1566,7 +1609,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -1574,7 +1617,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1582,7 +1625,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1590,7 +1633,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +1641,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -1606,7 +1649,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
@@ -1614,7 +1657,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>29</v>
       </c>
@@ -1622,7 +1665,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
@@ -1630,7 +1673,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
@@ -1638,7 +1681,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="5" t="s">
         <v>30</v>
       </c>
@@ -1646,7 +1689,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>78</v>
       </c>
@@ -1654,7 +1697,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -1662,7 +1705,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="9" t="s">
         <v>67</v>
       </c>
@@ -1670,7 +1713,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
         <v>68</v>
       </c>
@@ -1678,7 +1721,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1729,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="12" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1737,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="13" t="s">
         <v>33</v>
       </c>
@@ -1702,7 +1745,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="14" t="s">
         <v>69</v>
       </c>
@@ -1710,7 +1753,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="15" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1761,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="16" t="s">
         <v>70</v>
       </c>
@@ -1726,7 +1769,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="17" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1777,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="18" t="s">
         <v>34</v>
       </c>
@@ -1742,7 +1785,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="19" t="s">
         <v>35</v>
       </c>
@@ -1751,12 +1794,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A2:C5">
+  <autoFilter ref="A1:B76" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:C156">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C156">
     <sortCondition ref="A2:A156"/>
     <sortCondition ref="B2:B156"/>
   </sortState>
@@ -1765,20 +1808,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="3" width="9.15625" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9.15625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -1800,7 +1843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19" t="s">
         <v>79</v>
       </c>
@@ -1811,7 +1854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19" t="s">
         <v>81</v>
       </c>
@@ -1833,7 +1876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -1855,7 +1898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="s">
         <v>37</v>
       </c>
@@ -1866,7 +1909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
@@ -1877,7 +1920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
@@ -1888,7 +1931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="19" t="s">
         <v>72</v>
       </c>
@@ -1899,7 +1942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1953,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
@@ -1921,7 +1964,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19" t="s">
         <v>38</v>
       </c>
@@ -1932,7 +1975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
@@ -1943,7 +1986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +1997,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
@@ -1965,7 +2008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19" t="s">
         <v>39</v>
       </c>
@@ -1976,7 +2019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19" t="s">
         <v>40</v>
       </c>
@@ -1987,7 +2030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="19" t="s">
         <v>40</v>
       </c>
@@ -1998,7 +2041,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="19" t="s">
         <v>13</v>
       </c>
@@ -2020,7 +2063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="19" t="s">
         <v>2</v>
       </c>
@@ -2031,7 +2074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="19" t="s">
         <v>2</v>
       </c>
@@ -2053,7 +2096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="19" t="s">
         <v>41</v>
       </c>
@@ -2064,7 +2107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="19" t="s">
         <v>41</v>
       </c>
@@ -2075,7 +2118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="19" t="s">
         <v>41</v>
       </c>
@@ -2086,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="19" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="19" t="s">
         <v>3</v>
       </c>
@@ -2108,18 +2151,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="19" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B31" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="19" t="s">
         <v>42</v>
       </c>
@@ -2127,32 +2170,32 @@
         <v>2012</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="19" t="s">
         <v>43</v>
       </c>
@@ -2160,32 +2203,32 @@
         <v>2012</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="19" t="s">
         <v>44</v>
       </c>
@@ -2193,32 +2236,32 @@
         <v>2012</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="19" t="s">
         <v>45</v>
       </c>
@@ -2226,32 +2269,32 @@
         <v>2012</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="19" t="s">
         <v>46</v>
       </c>
@@ -2259,32 +2302,32 @@
         <v>2012</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="19" t="s">
         <v>47</v>
       </c>
@@ -2292,32 +2335,32 @@
         <v>2012</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="19" t="s">
         <v>48</v>
       </c>
@@ -2325,32 +2368,32 @@
         <v>2012</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="19" t="s">
         <v>49</v>
       </c>
@@ -2358,32 +2401,32 @@
         <v>2012</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="19" t="s">
         <v>50</v>
       </c>
@@ -2391,76 +2434,76 @@
         <v>2012</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B57" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="19" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B58" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="19" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B60" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="19" t="s">
         <v>52</v>
       </c>
@@ -2468,32 +2511,32 @@
         <v>2012</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="19" t="s">
         <v>53</v>
       </c>
@@ -2501,34 +2544,34 @@
         <v>2012</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B67" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="B68" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>15</v>
       </c>
       <c r="B69" s="19">
         <v>2008</v>
@@ -2537,18 +2580,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="19" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B70" s="19">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="19" t="s">
         <v>54</v>
       </c>
@@ -2556,32 +2599,32 @@
         <v>2012</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B72" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="19" t="s">
         <v>55</v>
       </c>
@@ -2589,32 +2632,32 @@
         <v>2012</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B75" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="19" t="s">
         <v>56</v>
       </c>
@@ -2622,67 +2665,67 @@
         <v>2012</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B78" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="19" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B79" s="19">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="19">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B81" s="19">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B82" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="B83" s="19">
         <v>2008</v>
@@ -2691,31 +2734,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B84" s="19">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="B85" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="B86" s="19">
         <v>2008</v>
@@ -2724,9 +2767,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87" s="19">
         <v>2008</v>
@@ -2735,40 +2778,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B88" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="B89" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C89" s="19" t="s">
+      <c r="B90" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="19" t="s">
         <v>58</v>
       </c>
@@ -2776,54 +2819,54 @@
         <v>2012</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B92" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="19" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B93" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="19" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B95" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="19" t="s">
         <v>59</v>
       </c>
@@ -2831,87 +2874,87 @@
         <v>2012</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B97" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="19" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B98" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B99" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C100" s="19" t="s">
+      <c r="B101" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B101" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B102" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="19" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B103" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="19" t="s">
         <v>60</v>
       </c>
@@ -2919,56 +2962,56 @@
         <v>2012</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B105" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B106" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C106" s="19" t="s">
+      <c r="B107" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="19">
+      <c r="B108" s="19">
         <v>2011</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
+      <c r="C108" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B108" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="B109" s="19">
         <v>2008</v>
@@ -2977,18 +3020,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="19" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B110" s="19">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="19" t="s">
         <v>61</v>
       </c>
@@ -2996,32 +3039,32 @@
         <v>2012</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B112" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B113" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="19" t="s">
         <v>62</v>
       </c>
@@ -3029,56 +3072,56 @@
         <v>2012</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B115" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C116" s="19" t="s">
+      <c r="B117" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B117" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="19" t="s">
+      <c r="B118" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B118" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="B119" s="19">
         <v>2008</v>
@@ -3087,51 +3130,51 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="19" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B120" s="19">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B121" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B122" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C122" s="19" t="s">
+      <c r="B123" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B123" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="19" t="s">
         <v>64</v>
       </c>
@@ -3139,32 +3182,32 @@
         <v>2012</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B125" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B126" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="19" t="s">
         <v>65</v>
       </c>
@@ -3172,76 +3215,76 @@
         <v>2012</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B128" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B129" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B129" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
+      <c r="B130" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B130" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C130" s="19" t="s">
+      <c r="B131" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B131" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B132" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="19" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B133" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="19" t="s">
         <v>66</v>
       </c>
@@ -3249,32 +3292,32 @@
         <v>2012</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B135" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B136" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="19" t="s">
         <v>67</v>
       </c>
@@ -3282,32 +3325,32 @@
         <v>2012</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B138" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B139" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="19" t="s">
         <v>68</v>
       </c>
@@ -3315,34 +3358,34 @@
         <v>2012</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B141" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B142" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B142" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="B143" s="19">
         <v>2008</v>
@@ -3351,9 +3394,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B144" s="19">
         <v>2008</v>
@@ -3362,18 +3405,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="19" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B145" s="19">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="19" t="s">
         <v>69</v>
       </c>
@@ -3381,111 +3424,111 @@
         <v>2012</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B147" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="19" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B148" s="19">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B149" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="19">
         <v>2010</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C150" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B150" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B151" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="19" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B152" s="19">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B153" s="19">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="19">
         <v>2014</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C155" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="19" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B155" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="B156" s="19">
         <v>2008</v>
@@ -3494,37 +3537,49 @@
         <v>36</v>
       </c>
     </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
-    <sortState ref="A2:C156">
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C157">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19" t="s">
         <v>85</v>
       </c>

--- a/input/mappings/SO2_control_frac_last_inv_year.xlsx
+++ b/input/mappings/SO2_control_frac_last_inv_year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orou913\OneDrive - PNNL\Desktop\CEDS_Repos\working_branch_1\CEDS\input\mappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Documents/Information &amp; Documents/CEDS_Project/CEDS/input/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_442E87315B1C0CB08FB4EBE4DD569F3831B6F368" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1A2962F2-F539-4791-9405-C9B408785970}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D7C36-1A17-2348-B5AC-083A5FD530B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1914" yWindow="432" windowWidth="18300" windowHeight="11742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2240" windowWidth="16720" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="last_inv_year" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,25 @@
     <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">complete_info!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">last_inv_year!$A$1:$B$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">complete_info!$A$1:$C$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">last_inv_year!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="88">
   <si>
     <t>arg</t>
   </si>
@@ -1174,18 +1184,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.15625" customWidth="1"/>
+    <col min="1" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1193,15 +1203,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1220,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1217,7 +1228,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1225,31 +1236,32 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1257,15 +1269,16 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1273,7 +1286,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1294,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1289,23 +1302,25 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>2017</v>
+      </c>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1313,87 +1328,97 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B18">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B26">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1401,23 +1426,25 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B28">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +1452,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1433,31 +1460,34 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B34">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1495,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1473,7 +1503,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1481,7 +1511,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +1519,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1497,7 +1527,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1535,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1513,7 +1543,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1521,39 +1551,43 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>74</v>
       </c>
-      <c r="B44">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="B46">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1561,23 +1595,25 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
-      <c r="B49">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1585,7 +1621,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -1593,7 +1629,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1601,23 +1637,25 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B53">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="B54">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1625,7 +1663,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1633,7 +1671,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -1641,7 +1679,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -1649,15 +1687,16 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>29</v>
       </c>
@@ -1665,63 +1704,70 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B63" s="6">
         <v>2008</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B64">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>31</v>
       </c>
@@ -1729,7 +1775,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>32</v>
       </c>
@@ -1737,7 +1783,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>33</v>
       </c>
@@ -1745,15 +1791,16 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="18">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="19">
+        <v>2015</v>
+      </c>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1808,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>70</v>
       </c>
@@ -1769,7 +1816,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>6</v>
       </c>
@@ -1777,7 +1824,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>34</v>
       </c>
@@ -1785,7 +1832,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>35</v>
       </c>
@@ -1794,7 +1841,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B76" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
       <sortCondition ref="A1"/>
     </sortState>
@@ -1809,19 +1856,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.15625" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="9.15625" style="19"/>
+    <col min="1" max="3" width="9.1640625" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1832,7 +1879,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -1843,7 +1890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>79</v>
       </c>
@@ -1854,7 +1901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>81</v>
       </c>
@@ -1876,7 +1923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
@@ -1887,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -1898,7 +1945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>37</v>
       </c>
@@ -1909,7 +1956,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
@@ -1920,29 +1967,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
@@ -1953,7 +2000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
@@ -1964,18 +2011,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
@@ -1986,7 +2033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>39</v>
       </c>
@@ -1997,7 +2044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
@@ -2008,18 +2055,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>40</v>
       </c>
@@ -2030,7 +2077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>40</v>
       </c>
@@ -2041,7 +2088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -2052,7 +2099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>13</v>
       </c>
@@ -2063,7 +2110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>2</v>
       </c>
@@ -2074,7 +2121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
@@ -2085,18 +2132,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>41</v>
       </c>
@@ -2107,7 +2154,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>41</v>
       </c>
@@ -2118,18 +2165,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>3</v>
       </c>
@@ -2140,7 +2187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>3</v>
       </c>
@@ -2151,18 +2198,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B31" s="19">
-        <v>2017</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2012</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>42</v>
       </c>
@@ -2170,32 +2217,32 @@
         <v>2012</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>43</v>
       </c>
@@ -2203,32 +2250,32 @@
         <v>2012</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>44</v>
       </c>
@@ -2236,32 +2283,32 @@
         <v>2012</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>45</v>
       </c>
@@ -2269,32 +2316,32 @@
         <v>2012</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>46</v>
       </c>
@@ -2302,32 +2349,32 @@
         <v>2012</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>47</v>
       </c>
@@ -2335,32 +2382,32 @@
         <v>2012</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>48</v>
       </c>
@@ -2368,32 +2415,32 @@
         <v>2012</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>49</v>
       </c>
@@ -2401,32 +2448,32 @@
         <v>2012</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>50</v>
       </c>
@@ -2434,76 +2481,76 @@
         <v>2012</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B57" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B58" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B60" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C61" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>52</v>
       </c>
@@ -2511,32 +2558,32 @@
         <v>2012</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B65" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>53</v>
       </c>
@@ -2544,34 +2591,34 @@
         <v>2012</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B67" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B68" s="19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B69" s="19">
         <v>2008</v>
@@ -2580,18 +2627,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B70" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>54</v>
       </c>
@@ -2599,32 +2646,32 @@
         <v>2012</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B72" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B73" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>55</v>
       </c>
@@ -2632,32 +2679,32 @@
         <v>2012</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B75" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B76" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>56</v>
       </c>
@@ -2665,67 +2712,67 @@
         <v>2012</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B78" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B79" s="19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="19">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B81" s="19">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B82" s="19">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B83" s="19">
         <v>2008</v>
@@ -2734,31 +2781,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B84" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C84" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B86" s="19">
         <v>2008</v>
@@ -2767,9 +2814,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B87" s="19">
         <v>2008</v>
@@ -2778,40 +2825,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B88" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C88" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C89" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C89" s="19" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
         <v>58</v>
       </c>
@@ -2819,54 +2866,54 @@
         <v>2012</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B92" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B93" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B95" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
         <v>59</v>
       </c>
@@ -2874,87 +2921,87 @@
         <v>2012</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B97" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B98" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B99" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B100" s="19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B101" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B102" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B103" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
         <v>60</v>
       </c>
@@ -2962,56 +3009,56 @@
         <v>2012</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B105" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B106" s="19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B107" s="19">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C107" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B108" s="19">
-        <v>2011</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B109" s="19">
         <v>2008</v>
@@ -3020,18 +3067,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B110" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
         <v>61</v>
       </c>
@@ -3039,32 +3086,32 @@
         <v>2012</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B112" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B113" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
         <v>62</v>
       </c>
@@ -3072,56 +3119,56 @@
         <v>2012</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B115" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B116" s="19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B117" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C117" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C118" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B119" s="19">
         <v>2008</v>
@@ -3130,51 +3177,51 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B120" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B121" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B122" s="19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B123" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
         <v>64</v>
       </c>
@@ -3182,32 +3229,32 @@
         <v>2012</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B125" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B126" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
         <v>65</v>
       </c>
@@ -3215,76 +3262,76 @@
         <v>2012</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B128" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B129" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B130" s="19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B131" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B132" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B133" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="19" t="s">
         <v>66</v>
       </c>
@@ -3292,32 +3339,32 @@
         <v>2012</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B135" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B136" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="19" t="s">
         <v>67</v>
       </c>
@@ -3325,32 +3372,32 @@
         <v>2012</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B138" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B139" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="19" t="s">
         <v>68</v>
       </c>
@@ -3358,34 +3405,34 @@
         <v>2012</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B141" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="19" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B142" s="19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B143" s="19">
         <v>2008</v>
@@ -3394,9 +3441,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B144" s="19">
         <v>2008</v>
@@ -3405,18 +3452,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B145" s="19">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="19" t="s">
         <v>69</v>
       </c>
@@ -3424,111 +3471,111 @@
         <v>2012</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B147" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B148" s="19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B149" s="19">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="19" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B150" s="19">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B151" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="19" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B152" s="19">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B153" s="19">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="19">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B155" s="19">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B156" s="19">
         <v>2008</v>
@@ -3537,25 +3584,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B157" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C157">
+  <autoFilter ref="A1:C156" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C156">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3567,19 +3602,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>85</v>
       </c>

--- a/input/mappings/SO2_control_frac_last_inv_year.xlsx
+++ b/input/mappings/SO2_control_frac_last_inv_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Documents/Information &amp; Documents/CEDS_Project/CEDS/input/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D7C36-1A17-2348-B5AC-083A5FD530B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8229E4-F108-6049-A047-3B2B9380AF9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2240" windowWidth="16720" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1805,7 +1805,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="18">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1821,7 +1821,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="18">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">

--- a/input/mappings/SO2_control_frac_last_inv_year.xlsx
+++ b/input/mappings/SO2_control_frac_last_inv_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Documents/Information &amp; Documents/CEDS_Project/CEDS/input/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8229E4-F108-6049-A047-3B2B9380AF9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E58459A-93EE-AF48-BE66-855E92552B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2240" windowWidth="16720" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="19">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D14" s="19"/>
     </row>

--- a/input/mappings/SO2_control_frac_last_inv_year.xlsx
+++ b/input/mappings/SO2_control_frac_last_inv_year.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Documents/Information &amp; Documents/CEDS_Project/CEDS/input/mappings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E58459A-93EE-AF48-BE66-855E92552B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23820" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="2240" windowWidth="16720" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="last_inv_year" sheetId="1" r:id="rId1"/>
@@ -12,10 +18,20 @@
     <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">complete_info!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">complete_info!$A$1:$C$156</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">last_inv_year!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -289,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,6 +856,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -887,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,9 +939,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,6 +991,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1130,19 +1183,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1150,15 +1203,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1220,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1174,7 +1228,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1182,31 +1236,32 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1214,15 +1269,16 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1230,7 +1286,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1294,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1246,111 +1302,123 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B18">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B26">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1358,23 +1426,25 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B28">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1452,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1390,31 +1460,34 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B34">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1495,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1430,7 +1503,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1511,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1519,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1527,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1535,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1470,7 +1543,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1478,39 +1551,43 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>74</v>
       </c>
-      <c r="B44">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="B46">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1518,23 +1595,25 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
-      <c r="B49">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1542,7 +1621,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -1550,7 +1629,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1558,23 +1637,25 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B53">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="B54">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1582,7 +1663,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1590,7 +1671,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +1679,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -1606,15 +1687,16 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>29</v>
       </c>
@@ -1622,63 +1704,70 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B63" s="6">
         <v>2008</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B64">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="19">
+        <v>2017</v>
+      </c>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1775,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1783,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>33</v>
       </c>
@@ -1702,23 +1791,24 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="18">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="19">
+        <v>2015</v>
+      </c>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="18">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>70</v>
       </c>
@@ -1726,15 +1816,15 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="18">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>34</v>
       </c>
@@ -1742,7 +1832,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>35</v>
       </c>
@@ -1751,12 +1841,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A2:C5">
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:C156">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C156">
     <sortCondition ref="A2:A156"/>
     <sortCondition ref="B2:B156"/>
   </sortState>
@@ -1765,20 +1855,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="3" width="9.1640625" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1879,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -1800,7 +1890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>79</v>
       </c>
@@ -1811,7 +1901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>81</v>
       </c>
@@ -1833,7 +1923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -1855,7 +1945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>37</v>
       </c>
@@ -1866,7 +1956,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
@@ -1877,29 +1967,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +2000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
@@ -1921,18 +2011,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
@@ -1943,7 +2033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +2044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
@@ -1965,18 +2055,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>40</v>
       </c>
@@ -1987,7 +2077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>40</v>
       </c>
@@ -1998,7 +2088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>13</v>
       </c>
@@ -2020,7 +2110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>2</v>
       </c>
@@ -2031,7 +2121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
@@ -2042,18 +2132,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>41</v>
       </c>
@@ -2064,7 +2154,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>41</v>
       </c>
@@ -2075,18 +2165,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>3</v>
       </c>
@@ -2108,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>42</v>
       </c>
@@ -2119,7 +2209,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>42</v>
       </c>
@@ -2130,18 +2220,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>43</v>
       </c>
@@ -2152,7 +2242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>43</v>
       </c>
@@ -2163,18 +2253,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>44</v>
       </c>
@@ -2185,7 +2275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>44</v>
       </c>
@@ -2196,18 +2286,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>45</v>
       </c>
@@ -2218,7 +2308,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>45</v>
       </c>
@@ -2229,18 +2319,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>46</v>
       </c>
@@ -2251,7 +2341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>46</v>
       </c>
@@ -2262,18 +2352,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>47</v>
       </c>
@@ -2284,7 +2374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>47</v>
       </c>
@@ -2295,18 +2385,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +2407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>48</v>
       </c>
@@ -2328,18 +2418,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>49</v>
       </c>
@@ -2350,7 +2440,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>49</v>
       </c>
@@ -2361,18 +2451,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>50</v>
       </c>
@@ -2383,7 +2473,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>50</v>
       </c>
@@ -2394,18 +2484,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B57" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>73</v>
       </c>
@@ -2416,18 +2506,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>51</v>
       </c>
@@ -2438,7 +2528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>51</v>
       </c>
@@ -2449,7 +2539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>52</v>
       </c>
@@ -2460,7 +2550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>52</v>
       </c>
@@ -2471,18 +2561,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>53</v>
       </c>
@@ -2493,7 +2583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>53</v>
       </c>
@@ -2504,18 +2594,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B67" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>14</v>
       </c>
@@ -2526,7 +2616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>15</v>
       </c>
@@ -2537,7 +2627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>54</v>
       </c>
@@ -2548,7 +2638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>54</v>
       </c>
@@ -2559,18 +2649,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B72" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>55</v>
       </c>
@@ -2581,7 +2671,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>55</v>
       </c>
@@ -2592,18 +2682,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B75" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>56</v>
       </c>
@@ -2614,7 +2704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>56</v>
       </c>
@@ -2625,18 +2715,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B78" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>4</v>
       </c>
@@ -2647,7 +2737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>4</v>
       </c>
@@ -2658,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>4</v>
       </c>
@@ -2669,7 +2759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
         <v>16</v>
       </c>
@@ -2680,7 +2770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
         <v>17</v>
       </c>
@@ -2691,7 +2781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
         <v>17</v>
       </c>
@@ -2702,7 +2792,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
         <v>18</v>
       </c>
@@ -2713,7 +2803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
         <v>19</v>
       </c>
@@ -2724,7 +2814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
         <v>20</v>
       </c>
@@ -2735,7 +2825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
         <v>57</v>
       </c>
@@ -2746,7 +2836,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
         <v>21</v>
       </c>
@@ -2757,7 +2847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
         <v>58</v>
       </c>
@@ -2768,7 +2858,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
         <v>58</v>
       </c>
@@ -2779,18 +2869,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B92" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
         <v>74</v>
       </c>
@@ -2801,18 +2891,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
         <v>59</v>
       </c>
@@ -2823,7 +2913,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
         <v>59</v>
       </c>
@@ -2834,18 +2924,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B97" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
         <v>75</v>
       </c>
@@ -2856,18 +2946,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B99" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
         <v>22</v>
       </c>
@@ -2878,7 +2968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
         <v>76</v>
       </c>
@@ -2889,18 +2979,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B102" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
         <v>60</v>
       </c>
@@ -2911,7 +3001,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
         <v>60</v>
       </c>
@@ -2922,18 +3012,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B105" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
         <v>23</v>
       </c>
@@ -2944,7 +3034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
         <v>82</v>
       </c>
@@ -2955,7 +3045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
         <v>24</v>
       </c>
@@ -2966,7 +3056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
         <v>25</v>
       </c>
@@ -2977,7 +3067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
         <v>61</v>
       </c>
@@ -2988,7 +3078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
         <v>61</v>
       </c>
@@ -2999,18 +3089,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B112" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
         <v>62</v>
       </c>
@@ -3021,7 +3111,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
         <v>62</v>
       </c>
@@ -3032,18 +3122,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B115" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
         <v>26</v>
       </c>
@@ -3054,7 +3144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
         <v>63</v>
       </c>
@@ -3065,7 +3155,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
         <v>27</v>
       </c>
@@ -3076,7 +3166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
         <v>28</v>
       </c>
@@ -3087,7 +3177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
         <v>77</v>
       </c>
@@ -3098,18 +3188,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B121" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>29</v>
       </c>
@@ -3120,7 +3210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
         <v>64</v>
       </c>
@@ -3131,7 +3221,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
         <v>64</v>
       </c>
@@ -3142,18 +3232,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B125" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
         <v>65</v>
       </c>
@@ -3164,7 +3254,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
         <v>65</v>
       </c>
@@ -3175,29 +3265,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B128" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C128" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B129" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
         <v>30</v>
       </c>
@@ -3208,7 +3298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
         <v>78</v>
       </c>
@@ -3219,18 +3309,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B132" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="s">
         <v>66</v>
       </c>
@@ -3241,7 +3331,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="19" t="s">
         <v>66</v>
       </c>
@@ -3252,18 +3342,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B135" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="s">
         <v>67</v>
       </c>
@@ -3274,7 +3364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="19" t="s">
         <v>67</v>
       </c>
@@ -3285,18 +3375,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B138" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="19" t="s">
         <v>68</v>
       </c>
@@ -3307,7 +3397,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="19" t="s">
         <v>68</v>
       </c>
@@ -3318,18 +3408,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B141" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="19" t="s">
         <v>31</v>
       </c>
@@ -3340,7 +3430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="19" t="s">
         <v>32</v>
       </c>
@@ -3351,7 +3441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="19" t="s">
         <v>33</v>
       </c>
@@ -3362,7 +3452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
         <v>69</v>
       </c>
@@ -3373,7 +3463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="19" t="s">
         <v>69</v>
       </c>
@@ -3384,18 +3474,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B147" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="s">
         <v>5</v>
       </c>
@@ -3406,7 +3496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="19" t="s">
         <v>5</v>
       </c>
@@ -3417,7 +3507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="19" t="s">
         <v>70</v>
       </c>
@@ -3428,7 +3518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="19" t="s">
         <v>70</v>
       </c>
@@ -3439,7 +3529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="19" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3540,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="19" t="s">
         <v>6</v>
       </c>
@@ -3461,7 +3551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="19" t="s">
         <v>6</v>
       </c>
@@ -3472,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="19" t="s">
         <v>34</v>
       </c>
@@ -3483,7 +3573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="19" t="s">
         <v>35</v>
       </c>
@@ -3495,8 +3585,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
-    <sortState ref="A2:C156">
+  <autoFilter ref="A1:C156" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C156">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -3505,26 +3595,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>85</v>
       </c>
